--- a/app/PickleJar/users.xlsx
+++ b/app/PickleJar/users.xlsx
@@ -1,108 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preis\SynologyDrive\PythonPlayground\webScrapingClean\app\PickleJar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1809D17-12D0-496A-AD6B-890102768B18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>buzzwords</t>
-  </si>
-  <si>
-    <t>superbuzzwords</t>
-  </si>
-  <si>
-    <t>KiP</t>
-  </si>
-  <si>
-    <t>kirsten.preis@amst.at</t>
-  </si>
-  <si>
-    <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
-  </si>
-  <si>
-    <t>['Simulator', 'Training', 'Flugschule']</t>
-  </si>
-  <si>
-    <t>Kiki</t>
-  </si>
-  <si>
-    <t>whizzogalaxy@web.de</t>
-  </si>
-  <si>
-    <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
-  </si>
-  <si>
-    <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False}</t>
-  </si>
-  <si>
-    <t>kirsten.preis@flightteam.de</t>
-  </si>
-  <si>
-    <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
-  </si>
-  <si>
-    <t>['Flightteam', 'reise']</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,29 +65,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,90 +443,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testMe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/app/PickleJar/users.xlsx
+++ b/app/PickleJar/users.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -742,4 +746,698 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>peter@rothweb.at</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['VR', 'XR', 'unity', 'varjo', 'simulation', 'simulator']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>peter@rothweb.at</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['VR', 'XR', 'unity', 'varjo', 'simulation', 'simulator']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>peter@rothweb.at</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['VR', 'XR', 'unity', 'varjo', 'simulation', 'simulator']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>peter@rothweb.at</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['VR', 'XR', 'unity', 'varjo', 'simulation', 'simulator']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>buzzwords</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>superbuzzwords</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KiP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kirsten.preis@amst.at</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Airbus', 'Simulator', 'Lufthansa', 'Training', 'Flugschule', 'VR', 'XR', 'EASA', 'Pilatus', 'Simulation', 'Brunner', 'Upset', 'UPRT']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Simulator', 'Training', 'Flugschule']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>whizzogalaxy@web.de</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.flighttraining-service.de/': False}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Flugschule', 'Jobs', 'Training', 'PPL', 'CPL', 'Bayern', 'Salzburg', 'Österreich']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kiki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kirsten.preis@flightteam.de</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://air-munich.de/': False, 'http://www.fliegerverein.eu/': False, 'https://www.mfa.aero/de/': False, 'https://www.flugausbildung.de/': False, 'https://www.eaa.aero/en/': False}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Training, Simulator, PPL, UL, Lehrgang, ATPL, CPL']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Flightteam', 'reise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>peter@rothweb.at</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'https://www.flugrevue.de/': True, 'https://www.aero.de/': True, 'https://www.pressebox.de/': True, 'https://www.etcusa.com/': False, 'https://www.flighttraining-service.de/': False, 'https://www.reiser-st.com/': False, 'https://www.amst.co.at/en/aerospace-medicine/': False, 'https://www.amst.co.at/en/civil-aviation/': False}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['VR', 'XR', 'unity', 'varjo', 'simulation', 'simulator']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>